--- a/Tercer proceso UNACEM/Config/Archivos/LISTADO DE PROVEDORES TRANSPORTE.xlsx
+++ b/Tercer proceso UNACEM/Config/Archivos/LISTADO DE PROVEDORES TRANSPORTE.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Tercer proceso UNACEM\Config\Archivos\"/>
@@ -1896,6 +1896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
